--- a/Timesheets/Timesheet-August2024_RaunaqRay.xlsx
+++ b/Timesheets/Timesheet-August2024_RaunaqRay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{31775067-D5BF-438A-AFFC-106F5133105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA50334-44B0-4923-AA30-A177BD6440AC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{31775067-D5BF-438A-AFFC-106F5133105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2D11A5-9C3C-411E-9C7B-0BD3E036620F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Timesheet" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>Week 3 (8/12-8/16)</t>
   </si>
   <si>
-    <t>Week 4 (8/19-7/23)</t>
-  </si>
-  <si>
     <t>Week 5 (8/26-8/30)</t>
+  </si>
+  <si>
+    <t>Week 4 (8/19-8/23)</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Overtime   " totalsRowFunction="custom" totalsRowDxfId="2">
       <totalsRowFormula>SUM(H9:H15)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Week 4 (8/19-7/23)" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Week 4 (8/19-8/23)" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="Comma">
       <totalsRowFormula>SUM(I9:I15)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Overtime    " totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Comma">
@@ -1342,7 +1342,7 @@
   <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="26">
-        <f>June[[#Totals],[Week 1 (8/1-8/2)]]+June[[#Totals],[Week 2 (8/5-8/9)]]+June[[#Totals],[Week 3 (8/12-8/16)]]+June[[#Totals],[Week 4 (8/19-7/23)]]+K16</f>
+        <f>June[[#Totals],[Week 1 (8/1-8/2)]]+June[[#Totals],[Week 2 (8/5-8/9)]]+June[[#Totals],[Week 3 (8/12-8/16)]]+June[[#Totals],[Week 4 (8/19-8/23)]]+K16</f>
         <v>176</v>
       </c>
       <c r="F3" s="24"/>
@@ -1492,13 +1492,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
         <v>Aug. Total: Regular hours</v>
       </c>
       <c r="C17" s="13">
-        <f>June[[#Totals],[Week 1 (8/1-8/2)]]+June[[#Totals],[Week 2 (8/5-8/9)]]+June[[#Totals],[Week 3 (8/12-8/16)]]+June[[#Totals],[Week 4 (8/19-7/23)]]+K16</f>
+        <f>June[[#Totals],[Week 1 (8/1-8/2)]]+June[[#Totals],[Week 2 (8/5-8/9)]]+June[[#Totals],[Week 3 (8/12-8/16)]]+June[[#Totals],[Week 4 (8/19-8/23)]]+K16</f>
         <v>176</v>
       </c>
       <c r="D17" s="12"/>
@@ -1804,35 +1804,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2132,6 +2103,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{130AFD06-8069-4DFD-BD17-50CD460CE9DA}">
   <ds:schemaRefs>
@@ -2141,26 +2141,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6408DD22-31C0-44DF-AB4F-DBEAE0781FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44BE1C5-7EC4-45B5-AA15-47FD2D21CD0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B8FA21-1EC9-4A24-9BE7-8D230AEB3E47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2181,6 +2161,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44BE1C5-7EC4-45B5-AA15-47FD2D21CD0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6408DD22-31C0-44DF-AB4F-DBEAE0781FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f6b6dd5b-f02f-441a-99a0-162ac5060bd2}" enabled="0" method="" siteId="{f6b6dd5b-f02f-441a-99a0-162ac5060bd2}" removed="1"/>
